--- a/doc/QA检查表.xlsx
+++ b/doc/QA检查表.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D3E5D-09AA-4ECA-89FE-C7421DC3187B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>组别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,15 +79,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一组(张三)</t>
+    <t>张智敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩水言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二组(牛仕浩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐天雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一组(郭嘉翔)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三组(栗梦祥)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +118,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -172,18 +202,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,20 +227,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -246,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +319,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,6 +371,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,16 +564,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
@@ -505,76 +582,76 @@
     <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="15.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="J2" s="7"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>8</v>
@@ -586,52 +663,98 @@
         <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3">
         <f>SUM(B3:I3)</f>
-        <v>76</v>
-      </c>
-      <c r="K3" s="6">
-        <v>42970</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="K3" s="4">
+        <v>43577</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="J4" s="3">
+        <f>SUM(B4:I4)</f>
+        <v>71</v>
+      </c>
+      <c r="K4" s="4">
+        <v>43577</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="3">
+        <f>SUM(B5:I5)</f>
+        <v>68</v>
+      </c>
+      <c r="K5" s="4">
+        <v>43577</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -645,7 +768,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -659,7 +782,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -673,7 +796,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -687,7 +810,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -701,7 +824,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -715,7 +838,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -729,7 +852,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -743,15 +866,155 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -760,12 +1023,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -774,12 +1037,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/QA检查表.xlsx
+++ b/doc/QA检查表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D3E5D-09AA-4ECA-89FE-C7421DC3187B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902617A1-7A5C-4989-82A9-6E78E8B6ECF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="2025" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>组别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,7 +202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -226,6 +226,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -769,46 +772,115 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="J7" s="3">
+        <f>SUM(B7:I7)</f>
+        <v>74</v>
+      </c>
+      <c r="K7" s="8">
+        <v>43578</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="J8" s="3">
+        <f>SUM(B8:I8)</f>
+        <v>77</v>
+      </c>
+      <c r="K8" s="8">
+        <v>43578</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10</v>
+      </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="J9" s="3">
+        <f>SUM(B9:I9)</f>
+        <v>77</v>
+      </c>
+      <c r="K9" s="8">
+        <v>43578</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
